--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.Update.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.Update.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,11 +85,15 @@
   </si>
   <si>
     <t>A basic AuditEvent profile for when a RESTful Update action happens successfully.
-* Given a Resource has no Patient subject 
-* And OAuth is used to authorize both app and user
-* When an App requests a RESTful Update of an existing Resource
-* And the Resource is successfully Updated thus where the server supports FHIR Versioning the updated Resource has a new id version assigned
-* Then an AuditEvent following this profile is recorded where the Resource is identified by the updated version specific id where versioning is available</t>
+- Given a Resource Update is requested 
+- And that resource does not have a Patient subject or is otherwise associated with a Patient
+  - when the resource is Patient specific then [PatientUpdate](StructureDefinition-IHE.BasicAudit.PatientUpdate.html) is used
+- And the request is authorized
+  - Authorization failures should follow [FHIR core Access Denied](http://hl7.org/fhir/security.html#AccessDenied)
+- When successful
+  - Note a failure AuditEvent may follow this pattern, but would not be a successful outcome and should have an OperationOutcome
+- Then the AuditEvent recorded will conform
+- And where the server supports FHIR Versioning the AuditEvent should use the version specific id</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -275,10 +279,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -297,7 +297,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -684,6 +684,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2195,7 +2199,7 @@
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -2211,28 +2215,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.15625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2456,16 +2460,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2479,7 +2483,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2490,28 +2494,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2561,13 +2565,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2596,7 +2600,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2607,25 +2611,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2676,19 +2680,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2711,7 +2715,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2722,28 +2726,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2793,19 +2797,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2828,7 +2832,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2839,7 +2843,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2851,16 +2855,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2886,43 +2890,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2945,18 +2949,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2968,16 +2972,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3027,25 +3031,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3062,11 +3066,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3085,16 +3089,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3144,7 +3148,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3162,7 +3166,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3179,11 +3183,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3202,16 +3206,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3261,7 +3265,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3273,13 +3277,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3296,11 +3300,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3313,25 +3317,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3380,7 +3384,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3392,13 +3396,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3415,7 +3419,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3423,32 +3427,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3458,73 +3462,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3532,7 +3536,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3540,7 +3544,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3552,20 +3556,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3590,29 +3594,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3624,19 +3628,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3647,10 +3651,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3660,39 +3664,39 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3707,14 +3711,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3743,19 +3747,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3766,10 +3770,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3779,39 +3783,39 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3826,14 +3830,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3850,7 +3854,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3862,19 +3866,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3885,7 +3889,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3896,29 +3900,29 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3928,70 +3932,70 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
+      <c r="X15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4002,7 +4006,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4013,7 +4017,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -4025,16 +4029,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4084,42 +4088,42 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4127,34 +4131,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -4203,42 +4207,42 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4249,28 +4253,28 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4296,55 +4300,55 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4355,7 +4359,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4366,19 +4370,19 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>211</v>
@@ -4435,19 +4439,19 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4459,7 +4463,7 @@
         <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4490,7 +4494,7 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>216</v>
@@ -4528,7 +4532,7 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>220</v>
@@ -4564,7 +4568,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>222</v>
@@ -4666,13 +4670,13 @@
         <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4681,7 +4685,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>237</v>
@@ -4715,7 +4719,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4727,7 +4731,7 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>244</v>
@@ -4790,7 +4794,7 @@
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
@@ -4823,7 +4827,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4842,16 +4846,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4913,7 +4917,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -4953,13 +4957,13 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>253</v>
@@ -4968,10 +4972,10 @@
         <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -5032,13 +5036,13 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -5066,7 +5070,7 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -5111,7 +5115,7 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>259</v>
@@ -5141,13 +5145,13 @@
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>261</v>
@@ -5266,7 +5270,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5300,16 +5304,16 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>278</v>
@@ -5379,13 +5383,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>283</v>
@@ -5419,7 +5423,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5431,7 +5435,7 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>289</v>
@@ -5496,13 +5500,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5536,7 +5540,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5548,7 +5552,7 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>295</v>
@@ -5613,13 +5617,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5650,19 +5654,19 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>301</v>
@@ -5729,16 +5733,16 @@
         <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5772,7 +5776,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5847,13 +5851,13 @@
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>312</v>
@@ -5899,7 +5903,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>318</v>
@@ -5972,7 +5976,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6006,7 +6010,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6018,7 +6022,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>326</v>
@@ -6053,7 +6057,7 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>329</v>
@@ -6083,13 +6087,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6123,7 +6127,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6198,13 +6202,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6238,7 +6242,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6250,7 +6254,7 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>244</v>
@@ -6313,7 +6317,7 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
@@ -6346,7 +6350,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6365,16 +6369,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6436,7 +6440,7 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6476,13 +6480,13 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>253</v>
@@ -6491,10 +6495,10 @@
         <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6555,13 +6559,13 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -6589,7 +6593,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6601,7 +6605,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>341</v>
@@ -6668,13 +6672,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6708,7 +6712,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6720,7 +6724,7 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>349</v>
@@ -6755,7 +6759,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>352</v>
@@ -6785,13 +6789,13 @@
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6872,7 +6876,7 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>220</v>
@@ -6908,7 +6912,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6941,10 +6945,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -7020,7 +7024,7 @@
         <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7029,7 +7033,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>237</v>
@@ -7063,7 +7067,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7075,7 +7079,7 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>244</v>
@@ -7138,7 +7142,7 @@
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -7171,7 +7175,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7190,16 +7194,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7261,7 +7265,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -7301,13 +7305,13 @@
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>253</v>
@@ -7316,10 +7320,10 @@
         <v>254</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7380,13 +7384,13 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -7411,10 +7415,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7459,7 +7463,7 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>259</v>
@@ -7489,13 +7493,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>261</v>
@@ -7614,7 +7618,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7645,19 +7649,19 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>278</v>
@@ -7727,13 +7731,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>283</v>
@@ -7767,7 +7771,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7779,7 +7783,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>289</v>
@@ -7844,13 +7848,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7884,7 +7888,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7896,7 +7900,7 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>295</v>
@@ -7961,13 +7965,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -7998,19 +8002,19 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>301</v>
@@ -8077,16 +8081,16 @@
         <v>300</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8120,7 +8124,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -8195,13 +8199,13 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>312</v>
@@ -8247,7 +8251,7 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>318</v>
@@ -8320,7 +8324,7 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8366,7 +8370,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>326</v>
@@ -8401,7 +8405,7 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X53" t="s" s="2">
         <v>329</v>
@@ -8431,13 +8435,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8468,10 +8472,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8546,13 +8550,13 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8586,7 +8590,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8598,7 +8602,7 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>244</v>
@@ -8661,7 +8665,7 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
@@ -8694,7 +8698,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8713,16 +8717,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8784,7 +8788,7 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
@@ -8824,13 +8828,13 @@
         <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>253</v>
@@ -8839,10 +8843,10 @@
         <v>254</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8903,13 +8907,13 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8937,7 +8941,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8949,7 +8953,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>341</v>
@@ -9016,13 +9020,13 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9056,7 +9060,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9068,7 +9072,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>349</v>
@@ -9103,7 +9107,7 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>352</v>
@@ -9133,13 +9137,13 @@
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9220,7 +9224,7 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>220</v>
@@ -9256,7 +9260,7 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9289,10 +9293,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9368,7 +9372,7 @@
         <v>228</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9377,7 +9381,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>237</v>
@@ -9411,7 +9415,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9423,7 +9427,7 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>244</v>
@@ -9486,7 +9490,7 @@
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
@@ -9519,7 +9523,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9538,16 +9542,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9609,7 +9613,7 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -9649,13 +9653,13 @@
         <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>253</v>
@@ -9664,10 +9668,10 @@
         <v>254</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9728,13 +9732,13 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9759,10 +9763,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9807,7 +9811,7 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X65" t="s" s="2">
         <v>259</v>
@@ -9837,13 +9841,13 @@
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>261</v>
@@ -9962,7 +9966,7 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -9993,19 +9997,19 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>278</v>
@@ -10075,13 +10079,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>283</v>
@@ -10115,7 +10119,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -10127,7 +10131,7 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>289</v>
@@ -10192,13 +10196,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10232,7 +10236,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10244,7 +10248,7 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>295</v>
@@ -10309,13 +10313,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10346,19 +10350,19 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>301</v>
@@ -10425,16 +10429,16 @@
         <v>300</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10468,7 +10472,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10543,13 +10547,13 @@
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>312</v>
@@ -10595,7 +10599,7 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>318</v>
@@ -10668,7 +10672,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10714,7 +10718,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>326</v>
@@ -10749,7 +10753,7 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>329</v>
@@ -10779,13 +10783,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10816,10 +10820,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10894,13 +10898,13 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10934,7 +10938,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10946,7 +10950,7 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>244</v>
@@ -11009,7 +11013,7 @@
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -11042,7 +11046,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11061,16 +11065,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11132,7 +11136,7 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
@@ -11172,13 +11176,13 @@
         <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>253</v>
@@ -11187,10 +11191,10 @@
         <v>254</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -11251,13 +11255,13 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -11285,7 +11289,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11297,7 +11301,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>341</v>
@@ -11364,13 +11368,13 @@
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11404,7 +11408,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11416,7 +11420,7 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>349</v>
@@ -11451,7 +11455,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>352</v>
@@ -11481,13 +11485,13 @@
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11568,7 +11572,7 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>220</v>
@@ -11604,7 +11608,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11640,7 +11644,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11716,7 +11720,7 @@
         <v>228</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11725,7 +11729,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>237</v>
@@ -11759,7 +11763,7 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11771,7 +11775,7 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>244</v>
@@ -11834,7 +11838,7 @@
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
@@ -11867,7 +11871,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11886,16 +11890,16 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11957,7 +11961,7 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
@@ -11997,13 +12001,13 @@
         <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>253</v>
@@ -12012,10 +12016,10 @@
         <v>254</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -12076,13 +12080,13 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
@@ -12110,7 +12114,7 @@
         <v>79</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -12155,7 +12159,7 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
@@ -12183,13 +12187,13 @@
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>261</v>
@@ -12226,7 +12230,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12308,7 +12312,7 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -12339,19 +12343,19 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>278</v>
@@ -12421,13 +12425,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>283</v>
@@ -12461,7 +12465,7 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
@@ -12473,7 +12477,7 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>289</v>
@@ -12538,13 +12542,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12578,11 +12582,11 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12590,7 +12594,7 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>295</v>
@@ -12655,13 +12659,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12692,19 +12696,19 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>301</v>
@@ -12771,16 +12775,16 @@
         <v>300</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12814,7 +12818,7 @@
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>78</v>
@@ -12889,13 +12893,13 @@
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>312</v>
@@ -12941,7 +12945,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>318</v>
@@ -13014,7 +13018,7 @@
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13060,7 +13064,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>326</v>
@@ -13095,7 +13099,7 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>329</v>
@@ -13125,13 +13129,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13240,13 +13244,13 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13280,7 +13284,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>78</v>
@@ -13292,7 +13296,7 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>244</v>
@@ -13355,7 +13359,7 @@
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
@@ -13388,7 +13392,7 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13407,16 +13411,16 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13478,7 +13482,7 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
@@ -13518,13 +13522,13 @@
         <v>78</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>253</v>
@@ -13533,10 +13537,10 @@
         <v>254</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>78</v>
@@ -13597,13 +13601,13 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>78</v>
@@ -13631,7 +13635,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>78</v>
@@ -13643,7 +13647,7 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>341</v>
@@ -13710,13 +13714,13 @@
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13750,7 +13754,7 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13762,7 +13766,7 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>349</v>
@@ -13797,7 +13801,7 @@
         <v>78</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>352</v>
@@ -13827,13 +13831,13 @@
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13870,7 +13874,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13914,7 +13918,7 @@
         <v>78</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>220</v>
@@ -13950,7 +13954,7 @@
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -13981,13 +13985,13 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14060,16 +14064,16 @@
         <v>368</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14103,7 +14107,7 @@
         <v>79</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>78</v>
@@ -14115,7 +14119,7 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>244</v>
@@ -14178,7 +14182,7 @@
         <v>79</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
@@ -14211,7 +14215,7 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14230,16 +14234,16 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14301,7 +14305,7 @@
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
@@ -14341,13 +14345,13 @@
         <v>78</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>253</v>
@@ -14356,10 +14360,10 @@
         <v>254</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>78</v>
@@ -14420,13 +14424,13 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
@@ -14454,7 +14458,7 @@
         <v>79</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>78</v>
@@ -14466,7 +14470,7 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>380</v>
@@ -14531,13 +14535,13 @@
         <v>79</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14568,19 +14572,19 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>278</v>
@@ -14645,16 +14649,16 @@
         <v>385</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14700,7 +14704,7 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>392</v>
@@ -14735,7 +14739,7 @@
         <v>78</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X107" t="s" s="2">
         <v>395</v>
@@ -14771,7 +14775,7 @@
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14802,7 +14806,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>80</v>
@@ -14873,7 +14877,7 @@
         <v>78</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>399</v>
@@ -14900,7 +14904,7 @@
         <v>407</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>408</v>
@@ -14922,7 +14926,7 @@
         <v>79</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>78</v>
@@ -14934,7 +14938,7 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>244</v>
@@ -14997,7 +15001,7 @@
         <v>79</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
@@ -15030,7 +15034,7 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15049,16 +15053,16 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15120,7 +15124,7 @@
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
@@ -15160,13 +15164,13 @@
         <v>78</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>253</v>
@@ -15175,10 +15179,10 @@
         <v>254</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>78</v>
@@ -15239,13 +15243,13 @@
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>78</v>
@@ -15273,16 +15277,16 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>414</v>
@@ -15348,13 +15352,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15366,7 +15370,7 @@
         <v>417</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>78</v>
@@ -15388,7 +15392,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15400,7 +15404,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>420</v>
@@ -15437,7 +15441,7 @@
         <v>78</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>424</v>
@@ -15467,13 +15471,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15485,7 +15489,7 @@
         <v>427</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>428</v>
@@ -15507,7 +15511,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15519,7 +15523,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>431</v>
@@ -15554,7 +15558,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>434</v>
@@ -15584,13 +15588,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15624,7 +15628,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>78</v>
@@ -15636,7 +15640,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>441</v>
@@ -15673,7 +15677,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>442</v>
@@ -15703,13 +15707,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15755,7 +15759,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>450</v>
@@ -15792,7 +15796,7 @@
         <v>78</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>454</v>
@@ -15828,7 +15832,7 @@
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15862,19 +15866,19 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>459</v>
@@ -15941,13 +15945,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -15981,7 +15985,7 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>78</v>
@@ -15993,7 +15997,7 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>468</v>
@@ -16058,13 +16062,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16098,16 +16102,16 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I119" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>473</v>
@@ -16177,13 +16181,13 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16300,7 +16304,7 @@
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16334,7 +16338,7 @@
         <v>79</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>78</v>
@@ -16346,7 +16350,7 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>244</v>
@@ -16409,7 +16413,7 @@
         <v>79</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>78</v>
@@ -16442,7 +16446,7 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16461,16 +16465,16 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16532,7 +16536,7 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
@@ -16572,13 +16576,13 @@
         <v>78</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>253</v>
@@ -16587,10 +16591,10 @@
         <v>254</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>78</v>
@@ -16651,13 +16655,13 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>78</v>
@@ -16682,10 +16686,10 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16697,7 +16701,7 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>490</v>
@@ -16757,16 +16761,16 @@
         <v>489</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16797,10 +16801,10 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16876,16 +16880,16 @@
         <v>493</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -16921,7 +16925,7 @@
         <v>79</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -17018,7 +17022,7 @@
         <v>407</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>408</v>
@@ -17040,7 +17044,7 @@
         <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17052,7 +17056,7 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>244</v>
@@ -17115,7 +17119,7 @@
         <v>79</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>78</v>
@@ -17148,7 +17152,7 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17167,16 +17171,16 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17238,7 +17242,7 @@
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
@@ -17278,13 +17282,13 @@
         <v>78</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>253</v>
@@ -17293,10 +17297,10 @@
         <v>254</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>78</v>
@@ -17357,13 +17361,13 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>78</v>
@@ -17391,16 +17395,16 @@
         <v>79</v>
       </c>
       <c r="F130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I130" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>414</v>
@@ -17466,13 +17470,13 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
@@ -17484,7 +17488,7 @@
         <v>417</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17506,7 +17510,7 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>78</v>
@@ -17518,7 +17522,7 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>244</v>
@@ -17581,7 +17585,7 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
@@ -17614,7 +17618,7 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17633,16 +17637,16 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17689,7 +17693,7 @@
         <v>78</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>250</v>
@@ -17704,7 +17708,7 @@
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
@@ -17738,19 +17742,19 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>507</v>
@@ -17815,19 +17819,19 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>511</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>78</v>
@@ -17855,19 +17859,19 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J134" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>513</v>
@@ -17902,7 +17906,7 @@
         <v>78</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X134" t="s" s="2">
         <v>516</v>
@@ -17932,19 +17936,19 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>78</v>
@@ -17972,16 +17976,16 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>520</v>
@@ -18049,13 +18053,13 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
@@ -18089,7 +18093,7 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>78</v>
@@ -18101,7 +18105,7 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>244</v>
@@ -18164,7 +18168,7 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
@@ -18197,7 +18201,7 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18216,16 +18220,16 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K137" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L137" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18272,7 +18276,7 @@
         <v>78</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>250</v>
@@ -18287,7 +18291,7 @@
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18321,19 +18325,19 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I138" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>529</v>
@@ -18370,7 +18374,7 @@
         <v>78</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X138" t="s" s="2">
         <v>533</v>
@@ -18400,13 +18404,13 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18440,16 +18444,16 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J139" t="s" s="2">
         <v>216</v>
@@ -18489,7 +18493,7 @@
         <v>78</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>542</v>
@@ -18519,13 +18523,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18559,19 +18563,19 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J140" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>546</v>
@@ -18638,13 +18642,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18675,22 +18679,22 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>554</v>
@@ -18755,13 +18759,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18795,19 +18799,19 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>561</v>
@@ -18870,13 +18874,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18910,16 +18914,16 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>566</v>
@@ -18987,13 +18991,13 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19027,19 +19031,19 @@
         <v>79</v>
       </c>
       <c r="F144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J144" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>573</v>
@@ -19104,19 +19108,19 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>78</v>
@@ -19141,10 +19145,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19156,7 +19160,7 @@
         <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>420</v>
@@ -19193,7 +19197,7 @@
         <v>78</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X145" t="s" s="2">
         <v>424</v>
@@ -19223,13 +19227,13 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -19241,7 +19245,7 @@
         <v>427</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>428</v>
@@ -19263,7 +19267,7 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19275,7 +19279,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>431</v>
@@ -19310,7 +19314,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>434</v>
@@ -19340,13 +19344,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19380,7 +19384,7 @@
         <v>79</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19392,7 +19396,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>441</v>
@@ -19429,7 +19433,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>442</v>
@@ -19459,13 +19463,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19511,7 +19515,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>450</v>
@@ -19548,7 +19552,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>454</v>
@@ -19584,7 +19588,7 @@
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19618,19 +19622,19 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I149" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J149" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>459</v>
@@ -19697,13 +19701,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19737,7 +19741,7 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>78</v>
@@ -19749,7 +19753,7 @@
         <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>468</v>
@@ -19814,13 +19818,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19854,16 +19858,16 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I151" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>473</v>
@@ -19933,13 +19937,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -20056,7 +20060,7 @@
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20090,7 +20094,7 @@
         <v>79</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>78</v>
@@ -20102,7 +20106,7 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>244</v>
@@ -20165,7 +20169,7 @@
         <v>79</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>78</v>
@@ -20198,7 +20202,7 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20217,16 +20221,16 @@
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K154" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L154" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20288,7 +20292,7 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
@@ -20328,13 +20332,13 @@
         <v>78</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>253</v>
@@ -20343,10 +20347,10 @@
         <v>254</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>78</v>
@@ -20407,13 +20411,13 @@
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>78</v>
@@ -20438,10 +20442,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>78</v>
@@ -20453,7 +20457,7 @@
         <v>78</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>490</v>
@@ -20513,16 +20517,16 @@
         <v>489</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20553,10 +20557,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20632,16 +20636,16 @@
         <v>493</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
@@ -20674,10 +20678,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20774,7 +20778,7 @@
         <v>407</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>408</v>
@@ -20796,7 +20800,7 @@
         <v>79</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20808,7 +20812,7 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>244</v>
@@ -20871,7 +20875,7 @@
         <v>79</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>78</v>
@@ -20904,7 +20908,7 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20923,16 +20927,16 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -20994,7 +20998,7 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
@@ -21034,13 +21038,13 @@
         <v>78</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>253</v>
@@ -21049,10 +21053,10 @@
         <v>254</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>78</v>
@@ -21113,13 +21117,13 @@
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>78</v>
@@ -21144,19 +21148,19 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I162" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>414</v>
@@ -21222,13 +21226,13 @@
         <v>79</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21240,7 +21244,7 @@
         <v>417</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>78</v>
@@ -21259,10 +21263,10 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>78</v>
@@ -21274,7 +21278,7 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>420</v>
@@ -21311,7 +21315,7 @@
         <v>78</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X163" t="s" s="2">
         <v>424</v>
@@ -21341,13 +21345,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21359,7 +21363,7 @@
         <v>427</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>428</v>
@@ -21381,7 +21385,7 @@
         <v>79</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21393,7 +21397,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>431</v>
@@ -21428,7 +21432,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X164" s="2"/>
       <c r="Y164" t="s" s="2">
@@ -21456,13 +21460,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21496,7 +21500,7 @@
         <v>79</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>78</v>
@@ -21508,7 +21512,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>441</v>
@@ -21545,7 +21549,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>442</v>
@@ -21575,13 +21579,13 @@
         <v>79</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21627,7 +21631,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>581</v>
@@ -21664,7 +21668,7 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X166" t="s" s="2">
         <v>454</v>
@@ -21700,7 +21704,7 @@
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21734,19 +21738,19 @@
         <v>79</v>
       </c>
       <c r="F167" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I167" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J167" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>459</v>
@@ -21813,13 +21817,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21853,7 +21857,7 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>78</v>
@@ -21865,7 +21869,7 @@
         <v>78</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>468</v>
@@ -21930,13 +21934,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -21970,16 +21974,16 @@
         <v>79</v>
       </c>
       <c r="F169" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I169" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>473</v>
@@ -22049,13 +22053,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22172,7 +22176,7 @@
         <v>78</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22206,7 +22210,7 @@
         <v>79</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>78</v>
@@ -22218,7 +22222,7 @@
         <v>78</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K171" t="s" s="2">
         <v>244</v>
@@ -22281,7 +22285,7 @@
         <v>79</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>78</v>
@@ -22314,7 +22318,7 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22333,16 +22337,16 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K172" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -22404,7 +22408,7 @@
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
@@ -22444,13 +22448,13 @@
         <v>78</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>253</v>
@@ -22459,10 +22463,10 @@
         <v>254</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>78</v>
@@ -22523,13 +22527,13 @@
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>78</v>
@@ -22554,10 +22558,10 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>78</v>
@@ -22569,7 +22573,7 @@
         <v>78</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>490</v>
@@ -22629,16 +22633,16 @@
         <v>489</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
@@ -22669,10 +22673,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22748,16 +22752,16 @@
         <v>493</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>78</v>
